--- a/src/test/resources/ConnectionsACP.xlsx
+++ b/src/test/resources/ConnectionsACP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9079149-5193-3146-9915-8B5849B13FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2BAF-F8CB-9B42-B3A5-58A1AA687CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45379.292361111111</v>
+        <v>45412.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45379.292361111111</v>
+        <v>45412.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsACP.xlsx
+++ b/src/test/resources/ConnectionsACP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2BAF-F8CB-9B42-B3A5-58A1AA687CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBC325-3A9D-EA43-B8ED-78D6362ECE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45412.292361111111</v>
+        <v>45442.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45412.292361111111</v>
+        <v>45442.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsACP.xlsx
+++ b/src/test/resources/ConnectionsACP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBC325-3A9D-EA43-B8ED-78D6362ECE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C010287-73B8-7440-BFE8-4B109360CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45442.292361111111</v>
+        <v>45471.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45442.292361111111</v>
+        <v>45471.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsACP.xlsx
+++ b/src/test/resources/ConnectionsACP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C010287-73B8-7440-BFE8-4B109360CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443660E-4B7D-1643-B76E-DF0AC711C7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
